--- a/modeling/info/tabela_kmeans.xlsx
+++ b/modeling/info/tabela_kmeans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mestrado\Tese\workspace\Driver-Profile-Classification\modeling\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276A18CE-D3D3-4C04-8E5E-DAD689D28BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F697B26-8EF9-4F36-8B9C-75B050AC1E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3A15BFF-4081-4AAB-9124-7665568017EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3A15BFF-4081-4AAB-9124-7665568017EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,604 +523,604 @@
     <t>4.558534431180376</t>
   </si>
   <si>
-    <t>2.724708125874716</t>
-  </si>
-  <si>
-    <t>0.787756255802748</t>
-  </si>
-  <si>
-    <t>1.7258352700431034</t>
-  </si>
-  <si>
-    <t>0.1892446527710664</t>
-  </si>
-  <si>
-    <t>1.510344242608646</t>
-  </si>
-  <si>
-    <t>0.12251841391190915</t>
-  </si>
-  <si>
-    <t>1.3573897820772316</t>
-  </si>
-  <si>
-    <t>0.008564099361706701</t>
-  </si>
-  <si>
-    <t>2.94591595364819</t>
-  </si>
-  <si>
-    <t>1.2064073061041067</t>
-  </si>
-  <si>
-    <t>1.6049796136527914</t>
-  </si>
-  <si>
-    <t>0.11066829871477753</t>
-  </si>
-  <si>
-    <t>0.01753876974730766</t>
-  </si>
-  <si>
-    <t>0.04471227408574488</t>
-  </si>
-  <si>
-    <t>0.006238397733753667</t>
-  </si>
-  <si>
-    <t>0.0005689264763058472</t>
-  </si>
-  <si>
-    <t>0.5376122428989025</t>
-  </si>
-  <si>
-    <t>4.31926914426275</t>
-  </si>
-  <si>
-    <t>1.472958754939218</t>
-  </si>
-  <si>
-    <t>1.7113706546301533</t>
-  </si>
-  <si>
-    <t>1.2411469856587112</t>
-  </si>
-  <si>
-    <t>0.5019414445461526</t>
-  </si>
-  <si>
-    <t>0.3291957950616987</t>
-  </si>
-  <si>
-    <t>0.233712775046599</t>
-  </si>
-  <si>
-    <t>0.1587213090615374</t>
-  </si>
-  <si>
-    <t>0.10233430490550337</t>
-  </si>
-  <si>
-    <t>5.7199748786888795</t>
-  </si>
-  <si>
-    <t>16.787617548113516</t>
-  </si>
-  <si>
-    <t>0.058259637609553716</t>
-  </si>
-  <si>
-    <t>0.08741763437952625</t>
-  </si>
-  <si>
-    <t>0.032149542713807905</t>
-  </si>
-  <si>
-    <t>0.020803192910210815</t>
-  </si>
-  <si>
-    <t>0.011346349803597085</t>
-  </si>
-  <si>
-    <t>0.0031802153599485915</t>
-  </si>
-  <si>
-    <t>0.5634228261493939</t>
-  </si>
-  <si>
-    <t>0.0006620971209393487</t>
-  </si>
-  <si>
-    <t>0.00010270315410249531</t>
-  </si>
-  <si>
-    <t>2.337258430840301</t>
-  </si>
-  <si>
-    <t>2.168650789954576</t>
-  </si>
-  <si>
-    <t>0.9215106676873664</t>
-  </si>
-  <si>
-    <t>0.4133231008260846</t>
-  </si>
-  <si>
-    <t>0.03220523834589146</t>
-  </si>
-  <si>
-    <t>0.6309437396056734</t>
-  </si>
-  <si>
-    <t>0.06667767726555991</t>
-  </si>
-  <si>
-    <t>7.926026954764303e-05</t>
-  </si>
-  <si>
-    <t>1.0880368652184012</t>
-  </si>
-  <si>
-    <t>0.9726218240659331</t>
-  </si>
-  <si>
-    <t>0.6272695918641275</t>
-  </si>
-  <si>
-    <t>0.38236719055490404</t>
-  </si>
-  <si>
-    <t>1.1791273781093219</t>
-  </si>
-  <si>
-    <t>0.331552713507873</t>
-  </si>
-  <si>
-    <t>0.7623396945725746</t>
-  </si>
-  <si>
-    <t>0.08310296811837047</t>
-  </si>
-  <si>
-    <t>0.6690614481524291</t>
-  </si>
-  <si>
-    <t>0.056881825319746615</t>
-  </si>
-  <si>
-    <t>0.6040178765228955</t>
-  </si>
-  <si>
-    <t>0.006029744399283087</t>
-  </si>
-  <si>
-    <t>1.1494232647311078</t>
-  </si>
-  <si>
-    <t>0.4579430703390051</t>
-  </si>
-  <si>
-    <t>0.6289570485590121</t>
-  </si>
-  <si>
-    <t>0.06036584001034664</t>
-  </si>
-  <si>
-    <t>0.006466412314597717</t>
-  </si>
-  <si>
-    <t>0.2690578854411044</t>
-  </si>
-  <si>
-    <t>0.01289374517965692</t>
-  </si>
-  <si>
-    <t>0.0003258308294360656</t>
-  </si>
-  <si>
-    <t>0.2084641093489404</t>
-  </si>
-  <si>
-    <t>2.8174166396869404</t>
-  </si>
-  <si>
-    <t>0.8228194970609496</t>
-  </si>
-  <si>
-    <t>1.0442071973949774</t>
-  </si>
-  <si>
-    <t>0.7012178100881199</t>
-  </si>
-  <si>
-    <t>0.39275580640451124</t>
-  </si>
-  <si>
-    <t>0.278476554397014</t>
-  </si>
-  <si>
-    <t>0.19121882737949672</t>
-  </si>
-  <si>
-    <t>0.11353962402199129</t>
-  </si>
-  <si>
-    <t>0.08407033124026136</t>
-  </si>
-  <si>
-    <t>2.378707993044203</t>
-  </si>
-  <si>
-    <t>4.521926356431211</t>
-  </si>
-  <si>
-    <t>0.025121209443618862</t>
-  </si>
-  <si>
-    <t>0.09261362622698188</t>
-  </si>
-  <si>
-    <t>0.05294552633943239</t>
-  </si>
-  <si>
-    <t>0.027436049971583616</t>
-  </si>
-  <si>
-    <t>0.025509476367848782</t>
-  </si>
-  <si>
-    <t>0.0018445654043712778</t>
-  </si>
-  <si>
-    <t>0.12907370153364306</t>
-  </si>
-  <si>
-    <t>9.256652365643e-05</t>
-  </si>
-  <si>
-    <t>1.1050160180701527e-05</t>
-  </si>
-  <si>
-    <t>3.8993102639339e-06</t>
-  </si>
-  <si>
-    <t>1.3468272443027363</t>
-  </si>
-  <si>
-    <t>1.382297863668444</t>
-  </si>
-  <si>
-    <t>0.88778467315414</t>
-  </si>
-  <si>
-    <t>0.4537923250783441</t>
-  </si>
-  <si>
-    <t>0.0693384271063776</t>
-  </si>
-  <si>
-    <t>0.1806288413264746</t>
-  </si>
-  <si>
-    <t>0.05173191456954957</t>
-  </si>
-  <si>
-    <t>0.00035650866358498325</t>
-  </si>
-  <si>
-    <t>1.502337953745357e-05</t>
-  </si>
-  <si>
-    <t>0.43651771307635645</t>
-  </si>
-  <si>
-    <t>0.6576497289534844</t>
-  </si>
-  <si>
-    <t>0.4828719282939307</t>
-  </si>
-  <si>
-    <t>0.29496926249071465</t>
-  </si>
-  <si>
-    <t>2.359784413359482</t>
-  </si>
-  <si>
-    <t>0.9815595584642002</t>
-  </si>
-  <si>
-    <t>1.2940069639450626</t>
-  </si>
-  <si>
-    <t>0.5845492446307343</t>
-  </si>
-  <si>
-    <t>1.2053766415498226</t>
-  </si>
-  <si>
-    <t>0.2947771551514619</t>
-  </si>
-  <si>
-    <t>1.0525476683520227</t>
-  </si>
-  <si>
-    <t>0.06608971417906376</t>
-  </si>
-  <si>
-    <t>2.7619349924629417</t>
-  </si>
-  <si>
-    <t>1.3878983272256067</t>
-  </si>
-  <si>
-    <t>1.3930274416553867</t>
-  </si>
-  <si>
-    <t>0.33277661462304825</t>
-  </si>
-  <si>
-    <t>0.08739987765054578</t>
-  </si>
-  <si>
-    <t>0.29632877369209487</t>
-  </si>
-  <si>
-    <t>0.0401368363654381</t>
-  </si>
-  <si>
-    <t>0.01515006305217883</t>
-  </si>
-  <si>
-    <t>0.8976451928263312</t>
-  </si>
-  <si>
-    <t>7.654704372776721</t>
-  </si>
-  <si>
-    <t>1.2782825033098202</t>
-  </si>
-  <si>
-    <t>3.5682479887182454</t>
-  </si>
-  <si>
-    <t>3.2882440378411175</t>
-  </si>
-  <si>
-    <t>0.9640250159851165</t>
-  </si>
-  <si>
-    <t>0.7741708304908858</t>
-  </si>
-  <si>
-    <t>0.7184623399043533</t>
-  </si>
-  <si>
-    <t>0.598157541239611</t>
-  </si>
-  <si>
-    <t>0.3979921424982536</t>
-  </si>
-  <si>
-    <t>4.211291942609493</t>
-  </si>
-  <si>
-    <t>5.8964747234397485</t>
-  </si>
-  <si>
-    <t>0.21002681112372415</t>
-  </si>
-  <si>
-    <t>0.2650910593107266</t>
-  </si>
-  <si>
-    <t>0.1526861719627848</t>
-  </si>
-  <si>
-    <t>0.1235786212998395</t>
-  </si>
-  <si>
-    <t>0.08595096548068583</t>
-  </si>
-  <si>
-    <t>0.04161922273510593</t>
-  </si>
-  <si>
-    <t>0.22107101101489798</t>
-  </si>
-  <si>
-    <t>0.02136742119832854</t>
-  </si>
-  <si>
-    <t>0.005706267096960058</t>
-  </si>
-  <si>
-    <t>1.7063648292647013</t>
-  </si>
-  <si>
-    <t>2.028018090057464</t>
-  </si>
-  <si>
-    <t>1.1556836743207988</t>
-  </si>
-  <si>
-    <t>0.7288710387699441</t>
-  </si>
-  <si>
-    <t>0.14200600554465062</t>
-  </si>
-  <si>
-    <t>0.4070671966170992</t>
-  </si>
-  <si>
-    <t>0.31468739776522503</t>
-  </si>
-  <si>
-    <t>0.004403762203491197</t>
-  </si>
-  <si>
-    <t>0.5626604219996852</t>
-  </si>
-  <si>
-    <t>0.993594277637875</t>
-  </si>
-  <si>
-    <t>1.1303455727658918</t>
-  </si>
-  <si>
-    <t>0.6622285797293949</t>
-  </si>
-  <si>
-    <t>1.026893842463342</t>
-  </si>
-  <si>
-    <t>0.39566555960674576</t>
-  </si>
-  <si>
-    <t>0.5671718101578896</t>
-  </si>
-  <si>
-    <t>0.312413804182842</t>
-  </si>
-  <si>
-    <t>0.5412363889677079</t>
-  </si>
-  <si>
-    <t>0.14753194566478223</t>
-  </si>
-  <si>
-    <t>0.45014629594237265</t>
-  </si>
-  <si>
-    <t>0.12585240951983168</t>
-  </si>
-  <si>
-    <t>1.2007346148049913</t>
-  </si>
-  <si>
-    <t>0.6272637791854326</t>
-  </si>
-  <si>
-    <t>0.5628555016906156</t>
-  </si>
-  <si>
-    <t>0.3536824135731346</t>
-  </si>
-  <si>
-    <t>0.027055440960089067</t>
-  </si>
-  <si>
-    <t>1.205970189824207</t>
-  </si>
-  <si>
-    <t>0.03964663900778284</t>
-  </si>
-  <si>
-    <t>0.005903425697909449</t>
-  </si>
-  <si>
-    <t>0.3974955876892971</t>
-  </si>
-  <si>
-    <t>2.74605476839349</t>
-  </si>
-  <si>
-    <t>0.6793926433077299</t>
-  </si>
-  <si>
-    <t>1.170027567017388</t>
-  </si>
-  <si>
-    <t>0.9621836491653666</t>
-  </si>
-  <si>
-    <t>0.48245893573118825</t>
-  </si>
-  <si>
-    <t>0.4144089042075458</t>
-  </si>
-  <si>
-    <t>0.3450676127232225</t>
-  </si>
-  <si>
-    <t>0.24690113423524798</t>
-  </si>
-  <si>
-    <t>0.15097008309411697</t>
-  </si>
-  <si>
-    <t>1.9174635365326742</t>
-  </si>
-  <si>
-    <t>2.656587033717172</t>
-  </si>
-  <si>
-    <t>0.07423195865150597</t>
-  </si>
-  <si>
-    <t>0.17113104926466113</t>
-  </si>
-  <si>
-    <t>0.1273486712191629</t>
-  </si>
-  <si>
-    <t>0.09705131181168843</t>
-  </si>
-  <si>
-    <t>0.0690742998150809</t>
-  </si>
-  <si>
-    <t>0.019001575109085397</t>
-  </si>
-  <si>
-    <t>0.09939646239511837</t>
-  </si>
-  <si>
-    <t>0.0036510873509817596</t>
-  </si>
-  <si>
-    <t>0.00029796166439547404</t>
-  </si>
-  <si>
-    <t>0.00016441785221866912</t>
-  </si>
-  <si>
-    <t>0.856261123024809</t>
-  </si>
-  <si>
-    <t>1.0146265817977342</t>
-  </si>
-  <si>
-    <t>0.6628218845665289</t>
-  </si>
-  <si>
-    <t>0.48423010364897967</t>
-  </si>
-  <si>
-    <t>0.13215737717784795</t>
-  </si>
-  <si>
-    <t>0.1475764222389523</t>
-  </si>
-  <si>
-    <t>0.1131669195045179</t>
-  </si>
-  <si>
-    <t>0.005384741191073295</t>
-  </si>
-  <si>
-    <t>0.0008287134847839234</t>
-  </si>
-  <si>
-    <t>0.259571112414081</t>
-  </si>
-  <si>
-    <t>0.5180391376336182</t>
-  </si>
-  <si>
-    <t>0.6224841477946963</t>
-  </si>
-  <si>
-    <t>0.3471457434877981</t>
+    <t>1.026323027430503</t>
+  </si>
+  <si>
+    <t>0.395261900180666</t>
+  </si>
+  <si>
+    <t>0.566892967463549</t>
+  </si>
+  <si>
+    <t>0.31245036101584545</t>
+  </si>
+  <si>
+    <t>0.5411852284275653</t>
+  </si>
+  <si>
+    <t>0.1475362828657105</t>
+  </si>
+  <si>
+    <t>0.4500945615640108</t>
+  </si>
+  <si>
+    <t>0.1258682212346815</t>
+  </si>
+  <si>
+    <t>1.2004593169269533</t>
+  </si>
+  <si>
+    <t>0.6271425512109225</t>
+  </si>
+  <si>
+    <t>0.5625830288897568</t>
+  </si>
+  <si>
+    <t>0.3537256537339267</t>
+  </si>
+  <si>
+    <t>0.02699792542228758</t>
+  </si>
+  <si>
+    <t>1.2061168668276918</t>
+  </si>
+  <si>
+    <t>0.03963784871334794</t>
+  </si>
+  <si>
+    <t>0.005904166828126021</t>
+  </si>
+  <si>
+    <t>0.3974727936082984</t>
+  </si>
+  <si>
+    <t>2.7456883270672905</t>
+  </si>
+  <si>
+    <t>0.6793990371293777</t>
+  </si>
+  <si>
+    <t>1.1700424937839544</t>
+  </si>
+  <si>
+    <t>0.9619314227156669</t>
+  </si>
+  <si>
+    <t>0.4821453842354282</t>
+  </si>
+  <si>
+    <t>0.41444536047844427</t>
+  </si>
+  <si>
+    <t>0.3450977193641455</t>
+  </si>
+  <si>
+    <t>0.24692564932316133</t>
+  </si>
+  <si>
+    <t>0.1509831975767579</t>
+  </si>
+  <si>
+    <t>1.9172330775788373</t>
+  </si>
+  <si>
+    <t>2.655133452787553</t>
+  </si>
+  <si>
+    <t>0.07390297589002556</t>
+  </si>
+  <si>
+    <t>0.17102667134214838</t>
+  </si>
+  <si>
+    <t>0.12733010822846333</t>
+  </si>
+  <si>
+    <t>0.09701266112180378</t>
+  </si>
+  <si>
+    <t>0.0690818115155696</t>
+  </si>
+  <si>
+    <t>0.019003945350395526</t>
+  </si>
+  <si>
+    <t>0.099317166732669</t>
+  </si>
+  <si>
+    <t>0.0036515468225208087</t>
+  </si>
+  <si>
+    <t>0.0002979991339255943</t>
+  </si>
+  <si>
+    <t>0.00016443854506731636</t>
+  </si>
+  <si>
+    <t>0.8562978915037023</t>
+  </si>
+  <si>
+    <t>1.014718370364587</t>
+  </si>
+  <si>
+    <t>0.6628544585795969</t>
+  </si>
+  <si>
+    <t>0.4842551458771087</t>
+  </si>
+  <si>
+    <t>0.13216943716770813</t>
+  </si>
+  <si>
+    <t>0.14755297401561646</t>
+  </si>
+  <si>
+    <t>0.11317819164776569</t>
+  </si>
+  <si>
+    <t>0.005385416297582273</t>
+  </si>
+  <si>
+    <t>0.0008288178071233483</t>
+  </si>
+  <si>
+    <t>0.25945732679068967</t>
+  </si>
+  <si>
+    <t>0.5179767217966718</t>
+  </si>
+  <si>
+    <t>0.6224002323370281</t>
+  </si>
+  <si>
+    <t>0.3470444726386008</t>
+  </si>
+  <si>
+    <t>2.359479627869936</t>
+  </si>
+  <si>
+    <t>0.9815488431022223</t>
+  </si>
+  <si>
+    <t>1.2938664172896932</t>
+  </si>
+  <si>
+    <t>0.584295057706552</t>
+  </si>
+  <si>
+    <t>1.2049215890073102</t>
+  </si>
+  <si>
+    <t>0.29466172227873194</t>
+  </si>
+  <si>
+    <t>1.0521228849346722</t>
+  </si>
+  <si>
+    <t>0.06605815224134971</t>
+  </si>
+  <si>
+    <t>2.7609154492720442</t>
+  </si>
+  <si>
+    <t>1.3875498193153977</t>
+  </si>
+  <si>
+    <t>1.3924255717407548</t>
+  </si>
+  <si>
+    <t>0.33263284362043144</t>
+  </si>
+  <si>
+    <t>0.08742315938214239</t>
+  </si>
+  <si>
+    <t>0.29620094610750425</t>
+  </si>
+  <si>
+    <t>0.040175001899366715</t>
+  </si>
+  <si>
+    <t>0.01514271485428842</t>
+  </si>
+  <si>
+    <t>0.8973149944962003</t>
+  </si>
+  <si>
+    <t>7.65203094866292</t>
+  </si>
+  <si>
+    <t>1.2778182985592004</t>
+  </si>
+  <si>
+    <t>3.5667105695346697</t>
+  </si>
+  <si>
+    <t>3.2870396288805765</t>
+  </si>
+  <si>
+    <t>0.9642404798670909</t>
+  </si>
+  <si>
+    <t>0.7738409528688355</t>
+  </si>
+  <si>
+    <t>0.7181502729224155</t>
+  </si>
+  <si>
+    <t>0.5978874503112562</t>
+  </si>
+  <si>
+    <t>0.3978116038972252</t>
+  </si>
+  <si>
+    <t>4.210538419688811</t>
+  </si>
+  <si>
+    <t>5.896790383857661</t>
+  </si>
+  <si>
+    <t>0.21035022567974335</t>
+  </si>
+  <si>
+    <t>0.2652789257327478</t>
+  </si>
+  <si>
+    <t>0.1527338694813751</t>
+  </si>
+  <si>
+    <t>0.12367769438068175</t>
+  </si>
+  <si>
+    <t>0.0859099450448322</t>
+  </si>
+  <si>
+    <t>0.04159912572452341</t>
+  </si>
+  <si>
+    <t>0.2210589141806642</t>
+  </si>
+  <si>
+    <t>0.021357052742989557</t>
+  </si>
+  <si>
+    <t>0.005703496391724141</t>
+  </si>
+  <si>
+    <t>1.705780127933235</t>
+  </si>
+  <si>
+    <t>2.027224885096102</t>
+  </si>
+  <si>
+    <t>1.1552496907675471</t>
+  </si>
+  <si>
+    <t>0.7285947636320451</t>
+  </si>
+  <si>
+    <t>0.14194057641863286</t>
+  </si>
+  <si>
+    <t>0.4069562499894729</t>
+  </si>
+  <si>
+    <t>0.3145414074012877</t>
+  </si>
+  <si>
+    <t>0.004401623935725664</t>
+  </si>
+  <si>
+    <t>0.5624133218051097</t>
+  </si>
+  <si>
+    <t>0.9932491790190302</t>
+  </si>
+  <si>
+    <t>1.1300914092970171</t>
+  </si>
+  <si>
+    <t>0.662165060708117</t>
+  </si>
+  <si>
+    <t>1.1788007879827749</t>
+  </si>
+  <si>
+    <t>0.3313621926338098</t>
+  </si>
+  <si>
+    <t>0.7621821591590694</t>
+  </si>
+  <si>
+    <t>0.08312389734136871</t>
+  </si>
+  <si>
+    <t>0.6689272127506553</t>
+  </si>
+  <si>
+    <t>0.05687385025335984</t>
+  </si>
+  <si>
+    <t>0.6038895606771887</t>
+  </si>
+  <si>
+    <t>0.00603126297157975</t>
+  </si>
+  <si>
+    <t>1.1490403687852668</t>
+  </si>
+  <si>
+    <t>0.45783758680046577</t>
+  </si>
+  <si>
+    <t>0.6286638898926863</t>
+  </si>
+  <si>
+    <t>0.06038104295863668</t>
+  </si>
+  <si>
+    <t>0.006450889754598839</t>
+  </si>
+  <si>
+    <t>0.2691084957235652</t>
+  </si>
+  <si>
+    <t>0.01288645554892248</t>
+  </si>
+  <si>
+    <t>0.0003259128889129216</t>
+  </si>
+  <si>
+    <t>0.20840948888933922</t>
+  </si>
+  <si>
+    <t>2.817305457327972</t>
+  </si>
+  <si>
+    <t>0.8227347810034477</t>
+  </si>
+  <si>
+    <t>1.0441623510340423</t>
+  </si>
+  <si>
+    <t>0.7011045021098126</t>
+  </si>
+  <si>
+    <t>0.3926540155397015</t>
+  </si>
+  <si>
+    <t>0.2785243872711269</t>
+  </si>
+  <si>
+    <t>0.19126698524401473</t>
+  </si>
+  <si>
+    <t>0.11356821862172818</t>
+  </si>
+  <si>
+    <t>0.08409150409064088</t>
+  </si>
+  <si>
+    <t>2.3784387735231483</t>
+  </si>
+  <si>
+    <t>4.520391421394628</t>
+  </si>
+  <si>
+    <t>0.025060634412394475</t>
+  </si>
+  <si>
+    <t>0.09257004895015222</t>
+  </si>
+  <si>
+    <t>0.05292795476249394</t>
+  </si>
+  <si>
+    <t>0.027412053912685495</t>
+  </si>
+  <si>
+    <t>0.02551590084980845</t>
+  </si>
+  <si>
+    <t>0.001845029952407973</t>
+  </si>
+  <si>
+    <t>0.12901059156439393</t>
+  </si>
+  <si>
+    <t>9.258983624633675e-05</t>
+  </si>
+  <si>
+    <t>1.1052943129034478e-05</t>
+  </si>
+  <si>
+    <t>3.900292293046711e-06</t>
+  </si>
+  <si>
+    <t>1.3467501661335324</t>
+  </si>
+  <si>
+    <t>1.3822807342889374</t>
+  </si>
+  <si>
+    <t>0.887912642173714</t>
+  </si>
+  <si>
+    <t>0.45386420079923107</t>
+  </si>
+  <si>
+    <t>0.06935588977270728</t>
+  </si>
+  <si>
+    <t>0.18057871535818068</t>
+  </si>
+  <si>
+    <t>0.05174494309068025</t>
+  </si>
+  <si>
+    <t>0.0003565984491785658</t>
+  </si>
+  <si>
+    <t>1.5027163128673547e-05</t>
+  </si>
+  <si>
+    <t>0.43638320882454046</t>
+  </si>
+  <si>
+    <t>0.657512619545868</t>
+  </si>
+  <si>
+    <t>0.48275261312783885</t>
+  </si>
+  <si>
+    <t>0.29488963623699155</t>
+  </si>
+  <si>
+    <t>2.7244665722644035</t>
+  </si>
+  <si>
+    <t>0.7880478007946435</t>
+  </si>
+  <si>
+    <t>1.7255071390137386</t>
+  </si>
+  <si>
+    <t>0.1890609200984731</t>
+  </si>
+  <si>
+    <t>1.5100449428424843</t>
+  </si>
+  <si>
+    <t>0.12248543307858321</t>
+  </si>
+  <si>
+    <t>1.3571530127042206</t>
+  </si>
+  <si>
+    <t>0.00855578470213223</t>
+  </si>
+  <si>
+    <t>2.94564785605599</t>
+  </si>
+  <si>
+    <t>1.2060872825454612</t>
+  </si>
+  <si>
+    <t>1.6051621503317535</t>
+  </si>
+  <si>
+    <t>0.110560853764569</t>
+  </si>
+  <si>
+    <t>0.01758785960569229</t>
+  </si>
+  <si>
+    <t>0.04473498190108247</t>
+  </si>
+  <si>
+    <t>0.006272960880564783</t>
+  </si>
+  <si>
+    <t>0.0005683741205036085</t>
+  </si>
+  <si>
+    <t>0.5375032443597827</t>
+  </si>
+  <si>
+    <t>4.318239644827897</t>
+  </si>
+  <si>
+    <t>1.47265413354871</t>
+  </si>
+  <si>
+    <t>1.7108958065653483</t>
+  </si>
+  <si>
+    <t>1.2410595866654701</t>
+  </si>
+  <si>
+    <t>0.5022278445031716</t>
+  </si>
+  <si>
+    <t>0.328962156576771</t>
+  </si>
+  <si>
+    <t>0.2334858694397576</t>
+  </si>
+  <si>
+    <t>0.15856721070322521</t>
+  </si>
+  <si>
+    <t>0.10223495121142034</t>
+  </si>
+  <si>
+    <t>5.717768775866184</t>
+  </si>
+  <si>
+    <t>16.781626309466507</t>
+  </si>
+  <si>
+    <t>0.05846098210387316</t>
+  </si>
+  <si>
+    <t>0.08759067013911757</t>
+  </si>
+  <si>
+    <t>0.032237471702600065</t>
+  </si>
+  <si>
+    <t>0.0209021377725987</t>
+  </si>
+  <si>
+    <t>0.01133533393000136</t>
+  </si>
+  <si>
+    <t>0.003177127772220486</t>
+  </si>
+  <si>
+    <t>0.5632444179228077</t>
+  </si>
+  <si>
+    <t>0.0006614543082005726</t>
+  </si>
+  <si>
+    <t>0.0001026034423023958</t>
+  </si>
+  <si>
+    <t>2.3365939847535513</t>
+  </si>
+  <si>
+    <t>2.167953374546751</t>
+  </si>
+  <si>
+    <t>0.9209846013621996</t>
+  </si>
+  <si>
+    <t>0.41308530926801035</t>
+  </si>
+  <si>
+    <t>0.03217397112419642</t>
+  </si>
+  <si>
+    <t>0.6306997770941782</t>
+  </si>
+  <si>
+    <t>0.06661294165656421</t>
+  </si>
+  <si>
+    <t>7.91833178296356e-05</t>
+  </si>
+  <si>
+    <t>1.0879228384194386</t>
+  </si>
+  <si>
+    <t>0.9728445849002983</t>
+  </si>
+  <si>
+    <t>0.627589361853699</t>
+  </si>
+  <si>
+    <t>0.3825892986941134</t>
   </si>
 </sst>
 </file>
@@ -1189,11 +1189,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C544D73-4657-4375-B198-B8199402F09B}">
   <dimension ref="C2:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,31 +1530,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:29" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
@@ -1587,33 +1587,33 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="W4" s="1"/>
       <c r="Y4" s="1"/>
@@ -1621,33 +1621,33 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="W5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1655,33 +1655,33 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="W6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1689,33 +1689,33 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="W7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1723,33 +1723,33 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="W8" s="1"/>
       <c r="Y8" s="1"/>
@@ -1757,33 +1757,33 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="W9" s="1"/>
       <c r="Y9" s="1"/>
@@ -1791,33 +1791,33 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="R10" s="1" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="W10" s="1"/>
       <c r="Y10" s="1"/>
@@ -1825,33 +1825,33 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="R11" s="1" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="W11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1859,33 +1859,33 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="R12" s="1" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="W12" s="1"/>
       <c r="Y12" s="1"/>
@@ -1893,33 +1893,33 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="W13" s="1"/>
       <c r="Y13" s="1"/>
@@ -1927,33 +1927,33 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="R14" s="1" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c r="W14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1961,33 +1961,33 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="R15" s="1" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="W15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1995,33 +1995,33 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="R16" s="1" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="W16" s="1"/>
       <c r="Y16" s="1"/>
@@ -2029,33 +2029,33 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="R17" s="1" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="W17" s="1"/>
       <c r="Y17" s="1"/>
@@ -2063,33 +2063,33 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="R18" s="1" t="s">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="W18" s="1"/>
       <c r="Y18" s="1"/>
@@ -2097,33 +2097,33 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="R19" s="1" t="s">
-        <v>226</v>
+        <v>328</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="W19" s="1"/>
       <c r="Y19" s="1"/>
@@ -2131,33 +2131,33 @@
       <c r="AC19" s="1"/>
     </row>
     <row r="20" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="R20" s="1" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="W20" s="1"/>
       <c r="Y20" s="1"/>
@@ -2165,33 +2165,33 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="R21" s="1" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="W21" s="1"/>
       <c r="Y21" s="1"/>
@@ -2199,33 +2199,33 @@
       <c r="AC21" s="1"/>
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="R22" s="1" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="W22" s="1"/>
       <c r="Y22" s="1"/>
@@ -2233,33 +2233,33 @@
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="R23" s="1" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="W23" s="1"/>
       <c r="Y23" s="1"/>
@@ -2267,33 +2267,33 @@
       <c r="AC23" s="1"/>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="R24" s="1" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>331</v>
+        <v>233</v>
       </c>
       <c r="W24" s="1"/>
       <c r="Y24" s="1"/>
@@ -2301,33 +2301,33 @@
       <c r="AC24" s="1"/>
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="R25" s="1" t="s">
-        <v>232</v>
+        <v>334</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="W25" s="1"/>
       <c r="Y25" s="1"/>
@@ -2335,33 +2335,33 @@
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="R26" s="1" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="W26" s="1"/>
       <c r="Y26" s="1"/>
@@ -2369,33 +2369,33 @@
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="R27" s="1" t="s">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
       <c r="W27" s="1"/>
       <c r="Y27" s="1"/>
@@ -2403,33 +2403,33 @@
       <c r="AC27" s="1"/>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="W28" s="1"/>
       <c r="Y28" s="1"/>
@@ -2437,33 +2437,33 @@
       <c r="AC28" s="1"/>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="R29" s="1" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="W29" s="1"/>
       <c r="Y29" s="1"/>
@@ -2471,33 +2471,33 @@
       <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="R30" s="1" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="W30" s="1"/>
       <c r="Y30" s="1"/>
@@ -2505,33 +2505,33 @@
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R31" s="1" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
       <c r="W31" s="1"/>
       <c r="Y31" s="1"/>
@@ -2539,33 +2539,33 @@
       <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="R32" s="1" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="W32" s="1"/>
       <c r="Y32" s="1"/>
@@ -2573,33 +2573,33 @@
       <c r="AC32" s="1"/>
     </row>
     <row r="33" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="R33" s="1" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="W33" s="1"/>
       <c r="Y33" s="1"/>
@@ -2607,33 +2607,33 @@
       <c r="AC33" s="1"/>
     </row>
     <row r="34" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="R34" s="1" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
       <c r="W34" s="1"/>
       <c r="Y34" s="1"/>
@@ -2641,33 +2641,33 @@
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="R35" s="1" t="s">
-        <v>242</v>
+        <v>344</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
       <c r="W35" s="1"/>
       <c r="Y35" s="1"/>
@@ -2675,33 +2675,33 @@
       <c r="AC35" s="1"/>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="R36" s="1" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="W36" s="1"/>
       <c r="Y36" s="1"/>
@@ -2709,33 +2709,33 @@
       <c r="AC36" s="1"/>
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="R37" s="1" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="W37" s="1"/>
       <c r="Y37" s="1"/>
@@ -2743,33 +2743,33 @@
       <c r="AC37" s="1"/>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="R38" s="1" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="W38" s="1"/>
       <c r="Y38" s="1"/>
@@ -2777,33 +2777,33 @@
       <c r="AC38" s="1"/>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="R39" s="1" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="W39" s="1"/>
       <c r="Y39" s="1"/>
@@ -2811,33 +2811,33 @@
       <c r="AC39" s="1"/>
     </row>
     <row r="40" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="R40" s="1" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="W40" s="1"/>
       <c r="Y40" s="1"/>
@@ -2845,33 +2845,33 @@
       <c r="AC40" s="1"/>
     </row>
     <row r="41" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>348</v>
+        <v>6</v>
       </c>
       <c r="W41" s="1"/>
       <c r="Y41" s="1"/>
@@ -2879,33 +2879,33 @@
       <c r="AC41" s="1"/>
     </row>
     <row r="42" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="R42" s="1" t="s">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="W42" s="1"/>
       <c r="Y42" s="1"/>
@@ -2913,33 +2913,33 @@
       <c r="AC42" s="1"/>
     </row>
     <row r="43" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="R43" s="1" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="W43" s="1"/>
       <c r="Y43" s="1"/>
@@ -2947,33 +2947,33 @@
       <c r="AC43" s="1"/>
     </row>
     <row r="44" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="R44" s="1" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="W44" s="1"/>
       <c r="Y44" s="1"/>
@@ -2981,33 +2981,33 @@
       <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="R45" s="1" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="W45" s="1"/>
       <c r="Y45" s="1"/>
@@ -3015,33 +3015,33 @@
       <c r="AC45" s="1"/>
     </row>
     <row r="46" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="R46" s="1" t="s">
-        <v>253</v>
+        <v>354</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="W46" s="1"/>
       <c r="Y46" s="1"/>
@@ -3049,33 +3049,33 @@
       <c r="AC46" s="1"/>
     </row>
     <row r="47" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="R47" s="1" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="W47" s="1"/>
       <c r="Y47" s="1"/>
@@ -3083,33 +3083,33 @@
       <c r="AC47" s="1"/>
     </row>
     <row r="48" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="R48" s="1" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="W48" s="1"/>
       <c r="Y48" s="1"/>
@@ -3117,33 +3117,33 @@
       <c r="AC48" s="1"/>
     </row>
     <row r="49" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="R49" s="1" t="s">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="W49" s="1"/>
       <c r="Y49" s="1"/>
@@ -3151,33 +3151,33 @@
       <c r="AC49" s="1"/>
     </row>
     <row r="50" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="W50" s="1"/>
       <c r="Y50" s="1"/>
@@ -3185,33 +3185,33 @@
       <c r="AC50" s="1"/>
     </row>
     <row r="51" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="R51" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="W51" s="1"/>
       <c r="Y51" s="1"/>
@@ -3219,33 +3219,33 @@
       <c r="AC51" s="1"/>
     </row>
     <row r="52" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="R52" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="W52" s="1"/>
       <c r="Y52" s="1"/>
@@ -3253,33 +3253,33 @@
       <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="R53" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="T53" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="W53" s="1"/>
       <c r="Y53" s="1"/>
@@ -3287,33 +3287,33 @@
       <c r="AC53" s="1"/>
     </row>
     <row r="54" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="R54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="T54" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="W54" s="1"/>
       <c r="Y54" s="1"/>
@@ -3322,27 +3322,31 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
@@ -3351,31 +3355,27 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
